--- a/Sprint 1/Global/BD/Excell/reponseQuestionGrille.xlsx
+++ b/Sprint 1/Global/BD/Excell/reponseQuestionGrille.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>idQuestion</t>
-  </si>
-  <si>
-    <t>idReponse</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -40,18 +33,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,11 +53,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,11 +337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -367,1098 +351,1090 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1</v>
+      <c r="A5" s="1">
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>2</v>
+      <c r="A9" s="1">
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>3</v>
+      <c r="A13" s="1">
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>4</v>
+      <c r="A17" s="1">
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>5</v>
+      <c r="A21" s="1">
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>6</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>6</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>6</v>
+      <c r="A25" s="1">
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>7</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>7</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>7</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>7</v>
+      <c r="A29" s="1">
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>8</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>8</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>8</v>
+      <c r="A33" s="1">
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>9</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>9</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>9</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>9</v>
+      <c r="A37" s="1">
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>10</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>10</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>10</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>10</v>
+      <c r="A41" s="1">
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>11</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>11</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>11</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>11</v>
+      <c r="A45" s="1">
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>12</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>12</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>12</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>12</v>
+      <c r="A49" s="1">
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>13</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>13</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>13</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>13</v>
+      <c r="A53" s="1">
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>14</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>14</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>14</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>14</v>
+      <c r="A57" s="1">
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>15</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>15</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>15</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>15</v>
+      <c r="A61" s="1">
+        <v>16</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>16</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>16</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>16</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>16</v>
+      <c r="A65" s="1">
+        <v>17</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>17</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>17</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>17</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>17</v>
+      <c r="A69" s="1">
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>18</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>18</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>18</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>18</v>
+      <c r="A73" s="1">
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>19</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>19</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>19</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>19</v>
+      <c r="A77" s="1">
+        <v>20</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>20</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>20</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>20</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>20</v>
+      <c r="A81" s="1">
+        <v>21</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>21</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>21</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>21</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>21</v>
+      <c r="A85" s="1">
+        <v>22</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>22</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>22</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>22</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>22</v>
+      <c r="A89" s="1">
+        <v>23</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>23</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>23</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>23</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>23</v>
+      <c r="A93" s="1">
+        <v>24</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>24</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>24</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>24</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>24</v>
+      <c r="A97" s="1">
+        <v>25</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>25</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>25</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>25</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>25</v>
+      <c r="A101" s="1">
+        <v>26</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>26</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>26</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>26</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>26</v>
+      <c r="A105" s="1">
+        <v>27</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>27</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>27</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>27</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>27</v>
+      <c r="A109" s="1">
+        <v>28</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>28</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>28</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>28</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>28</v>
+      <c r="A113" s="1">
+        <v>29</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>29</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>29</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>29</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>29</v>
+      <c r="A117" s="1">
+        <v>30</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>30</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>30</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>30</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>30</v>
+      <c r="A121" s="1">
+        <v>31</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>31</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>31</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>31</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>31</v>
+      <c r="A125" s="1">
+        <v>32</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>32</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>32</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>32</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
-        <v>32</v>
+      <c r="A129" s="1">
+        <v>33</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>33</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>33</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>33</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
-        <v>33</v>
+      <c r="A133" s="1">
+        <v>34</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>34</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>34</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>34</v>
       </c>
       <c r="B136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
-        <v>34</v>
-      </c>
-      <c r="B137">
         <v>4</v>
       </c>
     </row>
